--- a/public/EJECUCION_PRESUPUESTAL_DE_GASTOS_20210131.xlsx
+++ b/public/EJECUCION_PRESUPUESTAL_DE_GASTOS_20210131.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FABIOROJAS\Downloads\yopal-testing\examples-dicc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio.rojas\code\produccion\csv-analyzer\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8A0C290-DDF5-4127-8939-9682AD7EF2E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4446F2B-CB07-4F75-9021-635744D06536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4BDF0A88-EA69-4073-966F-16C40E822D06}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="15912" windowHeight="8172" xr2:uid="{4BDF0A88-EA69-4073-966F-16C40E822D06}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Anio</t>
   </si>
@@ -73,12 +64,6 @@
   </si>
   <si>
     <t>Reducciones_Acumuladas</t>
-  </si>
-  <si>
-    <t>Creditos_Periodo</t>
-  </si>
-  <si>
-    <t>Creditos_Acumulados</t>
   </si>
   <si>
     <t>Contracreditos_Periodo</t>
@@ -555,46 +540,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131A1ED9-6AD0-4595-9ACC-84E2AA1FFF4D}">
-  <dimension ref="A1:AE2"/>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.88671875" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" customWidth="1"/>
-    <col min="8" max="8" width="30.28515625" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="7" max="7" width="24.33203125" customWidth="1"/>
+    <col min="8" max="8" width="30.33203125" customWidth="1"/>
+    <col min="9" max="9" width="22.5546875" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
-    <col min="11" max="11" width="26.85546875" customWidth="1"/>
-    <col min="12" max="12" width="25.5703125" customWidth="1"/>
+    <col min="11" max="11" width="26.88671875" customWidth="1"/>
+    <col min="12" max="12" width="25.5546875" customWidth="1"/>
     <col min="13" max="13" width="25" customWidth="1"/>
-    <col min="14" max="14" width="18" customWidth="1"/>
-    <col min="15" max="15" width="20.85546875" customWidth="1"/>
-    <col min="16" max="16" width="23" customWidth="1"/>
-    <col min="17" max="17" width="27.140625" customWidth="1"/>
-    <col min="18" max="18" width="26.28515625" customWidth="1"/>
-    <col min="19" max="19" width="17.85546875" customWidth="1"/>
-    <col min="20" max="20" width="17.28515625" customWidth="1"/>
-    <col min="21" max="21" width="19.140625" customWidth="1"/>
-    <col min="22" max="22" width="19" customWidth="1"/>
-    <col min="23" max="23" width="23.7109375" customWidth="1"/>
-    <col min="24" max="24" width="25.28515625" customWidth="1"/>
-    <col min="25" max="25" width="23.140625" customWidth="1"/>
-    <col min="26" max="26" width="25.28515625" customWidth="1"/>
-    <col min="27" max="27" width="24" customWidth="1"/>
-    <col min="28" max="28" width="25.85546875" customWidth="1"/>
-    <col min="29" max="29" width="21" customWidth="1"/>
-    <col min="30" max="30" width="22" customWidth="1"/>
-    <col min="31" max="31" width="18.7109375" customWidth="1"/>
+    <col min="14" max="14" width="23" customWidth="1"/>
+    <col min="15" max="15" width="27.109375" customWidth="1"/>
+    <col min="16" max="16" width="26.33203125" customWidth="1"/>
+    <col min="17" max="17" width="17.88671875" customWidth="1"/>
+    <col min="18" max="18" width="17.33203125" customWidth="1"/>
+    <col min="19" max="19" width="19.109375" customWidth="1"/>
+    <col min="20" max="20" width="19" customWidth="1"/>
+    <col min="21" max="21" width="23.6640625" customWidth="1"/>
+    <col min="22" max="22" width="25.33203125" customWidth="1"/>
+    <col min="23" max="23" width="23.109375" customWidth="1"/>
+    <col min="24" max="24" width="25.33203125" customWidth="1"/>
+    <col min="25" max="25" width="24" customWidth="1"/>
+    <col min="26" max="26" width="25.88671875" customWidth="1"/>
+    <col min="27" max="27" width="21" customWidth="1"/>
+    <col min="28" max="28" width="22" customWidth="1"/>
+    <col min="29" max="29" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -652,10 +635,10 @@
       <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="6" t="s">
         <v>20</v>
       </c>
       <c r="V1" s="6" t="s">
@@ -682,37 +665,31 @@
       <c r="AC1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="6" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2018</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1">
         <v>900900081</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="I2" s="1">
         <v>1000000.58</v>
@@ -730,7 +707,7 @@
         <v>39999.11</v>
       </c>
       <c r="N2" s="1">
-        <v>49998.61</v>
+        <v>59998.11</v>
       </c>
       <c r="O2" s="1">
         <v>59998.11</v>
@@ -745,43 +722,37 @@
         <v>59998.11</v>
       </c>
       <c r="S2" s="1">
-        <v>59998.11</v>
-      </c>
-      <c r="T2" s="1">
-        <v>59998.11</v>
-      </c>
-      <c r="U2" s="1">
         <v>59999.11</v>
       </c>
+      <c r="T2" s="3">
+        <v>60000.11</v>
+      </c>
+      <c r="U2" s="3">
+        <v>60001.11</v>
+      </c>
       <c r="V2" s="3">
-        <v>60000.11</v>
+        <v>60002.11</v>
       </c>
       <c r="W2" s="3">
-        <v>60001.11</v>
+        <v>60003.11</v>
       </c>
       <c r="X2" s="3">
-        <v>60002.11</v>
+        <v>60004.11</v>
       </c>
       <c r="Y2" s="3">
-        <v>60003.11</v>
+        <v>60005.11</v>
       </c>
       <c r="Z2" s="3">
-        <v>60004.11</v>
+        <v>60006.11</v>
       </c>
       <c r="AA2" s="3">
-        <v>60005.11</v>
+        <v>60006.11</v>
       </c>
       <c r="AB2" s="3">
-        <v>60006.11</v>
-      </c>
-      <c r="AC2" s="3">
-        <v>60006.11</v>
-      </c>
-      <c r="AD2" s="3">
         <v>0.3</v>
       </c>
-      <c r="AE2" s="3" t="s">
-        <v>37</v>
+      <c r="AC2" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
